--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2005.783579895061</v>
+        <v>2099.343345535697</v>
       </c>
       <c r="AB2" t="n">
-        <v>2744.401582938732</v>
+        <v>2872.4141818538</v>
       </c>
       <c r="AC2" t="n">
-        <v>2482.479747654872</v>
+        <v>2598.275003796297</v>
       </c>
       <c r="AD2" t="n">
-        <v>2005783.579895061</v>
+        <v>2099343.345535696</v>
       </c>
       <c r="AE2" t="n">
-        <v>2744401.582938732</v>
+        <v>2872414.1818538</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15978119866788e-06</v>
+        <v>1.960667660285217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.46944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2482479.747654872</v>
+        <v>2598275.003796298</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>666.9523883249304</v>
+        <v>718.8542171472423</v>
       </c>
       <c r="AB3" t="n">
-        <v>912.5536815689113</v>
+        <v>983.568053510684</v>
       </c>
       <c r="AC3" t="n">
-        <v>825.46083897711</v>
+        <v>889.6976989300567</v>
       </c>
       <c r="AD3" t="n">
-        <v>666952.3883249304</v>
+        <v>718854.2171472423</v>
       </c>
       <c r="AE3" t="n">
-        <v>912553.6815689113</v>
+        <v>983568.0535106839</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188849950290928e-06</v>
+        <v>3.700359443386087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.256944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>825460.83897711</v>
+        <v>889697.6989300568</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.8100999903495</v>
+        <v>526.468036808673</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.3385671188973</v>
+        <v>720.336794092193</v>
       </c>
       <c r="AC4" t="n">
-        <v>600.0304652745953</v>
+        <v>651.5888614630736</v>
       </c>
       <c r="AD4" t="n">
-        <v>484810.0999903495</v>
+        <v>526468.0368086729</v>
       </c>
       <c r="AE4" t="n">
-        <v>663338.5671188973</v>
+        <v>720336.794092193</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.574860145470199e-06</v>
+        <v>4.35292883069611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.869444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>600030.4652745953</v>
+        <v>651588.8614630736</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.3220703727136</v>
+        <v>477.8094149904447</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.9951058551542</v>
+        <v>653.7599210536029</v>
       </c>
       <c r="AC5" t="n">
-        <v>540.0187308402311</v>
+        <v>591.3659917460583</v>
       </c>
       <c r="AD5" t="n">
-        <v>436322.0703727136</v>
+        <v>477809.4149904447</v>
       </c>
       <c r="AE5" t="n">
-        <v>596995.1058551542</v>
+        <v>653759.9210536028</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.711407969615248e-06</v>
+        <v>4.583769702397615e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.472222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>540018.7308402311</v>
+        <v>591365.9917460583</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>437.8597362249137</v>
+        <v>479.3470808426447</v>
       </c>
       <c r="AB6" t="n">
-        <v>599.0990081111639</v>
+        <v>655.8638233096127</v>
       </c>
       <c r="AC6" t="n">
-        <v>541.9218396177727</v>
+        <v>593.2691005235999</v>
       </c>
       <c r="AD6" t="n">
-        <v>437859.7362249137</v>
+        <v>479347.0808426447</v>
       </c>
       <c r="AE6" t="n">
-        <v>599099.008111164</v>
+        <v>655863.8233096127</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.710678547477721e-06</v>
+        <v>4.58253657808297e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.475000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>541921.8396177726</v>
+        <v>593269.1005235999</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1202.833262332158</v>
+        <v>1273.467237239179</v>
       </c>
       <c r="AB2" t="n">
-        <v>1645.769534781235</v>
+        <v>1742.414055400067</v>
       </c>
       <c r="AC2" t="n">
-        <v>1488.699600233763</v>
+        <v>1576.12050344617</v>
       </c>
       <c r="AD2" t="n">
-        <v>1202833.262332158</v>
+        <v>1273467.237239179</v>
       </c>
       <c r="AE2" t="n">
-        <v>1645769.534781235</v>
+        <v>1742414.055400067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.53209313278791e-06</v>
+        <v>2.653265109988705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.68055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1488699.600233763</v>
+        <v>1576120.50344617</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>504.676551562714</v>
+        <v>544.9535715921339</v>
       </c>
       <c r="AB3" t="n">
-        <v>690.5207226061933</v>
+        <v>745.6295183071624</v>
       </c>
       <c r="AC3" t="n">
-        <v>624.6183939925785</v>
+        <v>674.4676835775275</v>
       </c>
       <c r="AD3" t="n">
-        <v>504676.551562714</v>
+        <v>544953.571592134</v>
       </c>
       <c r="AE3" t="n">
-        <v>690520.7226061933</v>
+        <v>745629.5183071623</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.496442533744839e-06</v>
+        <v>4.323316730637624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.395833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>624618.3939925785</v>
+        <v>674467.6835775275</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>411.8631011726487</v>
+        <v>452.2253725480893</v>
       </c>
       <c r="AB4" t="n">
-        <v>563.5292651420602</v>
+        <v>618.7547054956783</v>
       </c>
       <c r="AC4" t="n">
-        <v>509.7468229951922</v>
+        <v>559.7016248308537</v>
       </c>
       <c r="AD4" t="n">
-        <v>411863.1011726487</v>
+        <v>452225.3725480893</v>
       </c>
       <c r="AE4" t="n">
-        <v>563529.2651420602</v>
+        <v>618754.7054956784</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.744396534648162e-06</v>
+        <v>4.752721239671454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.637499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>509746.8229951923</v>
+        <v>559701.6248308537</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.7760146068352</v>
+        <v>453.1382859822757</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.7783535776123</v>
+        <v>620.0037939312305</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.8767001835619</v>
+        <v>560.8315020192232</v>
       </c>
       <c r="AD5" t="n">
-        <v>412776.0146068352</v>
+        <v>453138.2859822757</v>
       </c>
       <c r="AE5" t="n">
-        <v>564778.3535776123</v>
+        <v>620003.7939312304</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.748320335027643e-06</v>
+        <v>4.759516441883797e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.626388888888887</v>
       </c>
       <c r="AH5" t="n">
-        <v>510876.7001835619</v>
+        <v>560831.5020192232</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>386.8449694029495</v>
+        <v>432.3364566119546</v>
       </c>
       <c r="AB2" t="n">
-        <v>529.2983535326806</v>
+        <v>591.5418132748143</v>
       </c>
       <c r="AC2" t="n">
-        <v>478.7828615464258</v>
+        <v>535.0858928500146</v>
       </c>
       <c r="AD2" t="n">
-        <v>386844.9694029494</v>
+        <v>432336.4566119546</v>
       </c>
       <c r="AE2" t="n">
-        <v>529298.3535326807</v>
+        <v>591541.8132748143</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.650946511352957e-06</v>
+        <v>5.016161255916103e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.822222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>478782.8615464258</v>
+        <v>535085.8928500146</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.1147663336575</v>
+        <v>430.6062535426627</v>
       </c>
       <c r="AB3" t="n">
-        <v>526.9310133621033</v>
+        <v>589.1744731042369</v>
       </c>
       <c r="AC3" t="n">
-        <v>476.6414569991455</v>
+        <v>532.9444883027344</v>
       </c>
       <c r="AD3" t="n">
-        <v>385114.7663336575</v>
+        <v>430606.2535426627</v>
       </c>
       <c r="AE3" t="n">
-        <v>526931.0133621033</v>
+        <v>589174.4731042369</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.667112873002676e-06</v>
+        <v>5.046751490992202e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.769444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>476641.4569991454</v>
+        <v>532944.4883027343</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.3305731764626</v>
+        <v>602.8137270713248</v>
       </c>
       <c r="AB2" t="n">
-        <v>759.8277896758409</v>
+        <v>824.7963356436968</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.3108918541783</v>
+        <v>746.0789309787895</v>
       </c>
       <c r="AD2" t="n">
-        <v>555330.5731764627</v>
+        <v>602813.7270713248</v>
       </c>
       <c r="AE2" t="n">
-        <v>759827.7896758409</v>
+        <v>824796.3356436968</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.272834833177205e-06</v>
+        <v>4.140611463643828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.844444444444443</v>
       </c>
       <c r="AH2" t="n">
-        <v>687310.8918541783</v>
+        <v>746078.9309787895</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.8205636362144</v>
+        <v>428.7218354060838</v>
       </c>
       <c r="AB3" t="n">
-        <v>534.737936953473</v>
+        <v>586.5961290751087</v>
       </c>
       <c r="AC3" t="n">
-        <v>483.7032987600409</v>
+        <v>530.6122178090175</v>
       </c>
       <c r="AD3" t="n">
-        <v>390820.5636362144</v>
+        <v>428721.8354060837</v>
       </c>
       <c r="AE3" t="n">
-        <v>534737.936953473</v>
+        <v>586596.1290751087</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.747442957542108e-06</v>
+        <v>5.005244393321651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.144444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>483703.2987600409</v>
+        <v>530612.2178090175</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.6465019354559</v>
+        <v>440.6597517707925</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.7092427567532</v>
+        <v>602.9301129090031</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.913834325254</v>
+        <v>545.3873091506954</v>
       </c>
       <c r="AD2" t="n">
-        <v>396646.5019354559</v>
+        <v>440659.7517707925</v>
       </c>
       <c r="AE2" t="n">
-        <v>542709.2427567531</v>
+        <v>602930.1129090032</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.530062239850228e-06</v>
+        <v>4.958106802869535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.601388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>490913.834325254</v>
+        <v>545387.3091506953</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1360.844427923098</v>
+        <v>1431.98912200719</v>
       </c>
       <c r="AB2" t="n">
-        <v>1861.967382503399</v>
+        <v>1959.310691631639</v>
       </c>
       <c r="AC2" t="n">
-        <v>1684.263828804908</v>
+        <v>1772.316829132142</v>
       </c>
       <c r="AD2" t="n">
-        <v>1360844.427923098</v>
+        <v>1431989.12200719</v>
       </c>
       <c r="AE2" t="n">
-        <v>1861967.382503399</v>
+        <v>1959310.691631639</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434277877904735e-06</v>
+        <v>2.467648134965889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.48194444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1684263.828804908</v>
+        <v>1772316.829132142</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.6868361291773</v>
+        <v>594.4800277246861</v>
       </c>
       <c r="AB3" t="n">
-        <v>743.8963149623206</v>
+        <v>813.3938005407585</v>
       </c>
       <c r="AC3" t="n">
-        <v>672.8998947273514</v>
+        <v>735.7646378225168</v>
       </c>
       <c r="AD3" t="n">
-        <v>543686.8361291774</v>
+        <v>594480.0277246861</v>
       </c>
       <c r="AE3" t="n">
-        <v>743896.3149623206</v>
+        <v>813393.8005407585</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408210885299483e-06</v>
+        <v>4.143281571347315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>672899.8947273514</v>
+        <v>735764.6378225167</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.7183557387796</v>
+        <v>458.421181698844</v>
       </c>
       <c r="AB4" t="n">
-        <v>571.540682755041</v>
+        <v>627.2320849155494</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.9936421552853</v>
+        <v>567.3699350569689</v>
       </c>
       <c r="AD4" t="n">
-        <v>417718.3557387796</v>
+        <v>458421.181698844</v>
       </c>
       <c r="AE4" t="n">
-        <v>571540.6827550409</v>
+        <v>627232.0849155494</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.735896269083557e-06</v>
+        <v>4.707058116051199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.593055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>516993.6421552853</v>
+        <v>567369.9350569688</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>418.3039002658764</v>
+        <v>459.0067262259407</v>
       </c>
       <c r="AB5" t="n">
-        <v>572.3418506094162</v>
+        <v>628.0332527699246</v>
       </c>
       <c r="AC5" t="n">
-        <v>517.7183476740851</v>
+        <v>568.0946405757685</v>
       </c>
       <c r="AD5" t="n">
-        <v>418303.9002658764</v>
+        <v>459006.7262259407</v>
       </c>
       <c r="AE5" t="n">
-        <v>572341.8506094161</v>
+        <v>628033.2527699246</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.739485702771745e-06</v>
+        <v>4.713233669256538e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.581944444444446</v>
       </c>
       <c r="AH5" t="n">
-        <v>517718.3476740851</v>
+        <v>568094.6405757685</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.5854775347435</v>
+        <v>458.5876036033293</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.6223847003332</v>
+        <v>627.4597907072825</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.353862371062</v>
+        <v>567.5759089275259</v>
       </c>
       <c r="AD2" t="n">
-        <v>415585.4775347435</v>
+        <v>458587.6036033293</v>
       </c>
       <c r="AE2" t="n">
-        <v>568622.3847003332</v>
+        <v>627459.7907072825</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402894652262319e-06</v>
+        <v>4.816987698549039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.34583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>514353.862371062</v>
+        <v>567575.9089275259</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.5724172106909</v>
+        <v>886.4579276765807</v>
       </c>
       <c r="AB2" t="n">
-        <v>1132.321091145975</v>
+        <v>1212.89084441078</v>
       </c>
       <c r="AC2" t="n">
-        <v>1024.253955429635</v>
+        <v>1097.134244523206</v>
       </c>
       <c r="AD2" t="n">
-        <v>827572.4172106909</v>
+        <v>886457.9276765806</v>
       </c>
       <c r="AE2" t="n">
-        <v>1132321.091145975</v>
+        <v>1212890.84441078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868207852574655e-06</v>
+        <v>3.308734927643555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.55972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1024253.955429635</v>
+        <v>1097134.244523206</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.2219220159445</v>
+        <v>441.4789289932044</v>
       </c>
       <c r="AB3" t="n">
-        <v>550.3377784810521</v>
+        <v>604.0509473242555</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.8143133067429</v>
+        <v>546.4011727024571</v>
       </c>
       <c r="AD3" t="n">
-        <v>402221.9220159445</v>
+        <v>441478.9289932044</v>
       </c>
       <c r="AE3" t="n">
-        <v>550337.778481052</v>
+        <v>604050.9473242555</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.731641743989309e-06</v>
+        <v>4.837940508434622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.905555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>497814.3133067429</v>
+        <v>546401.1727024571</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.7202065068008</v>
+        <v>434.9772134840606</v>
       </c>
       <c r="AB4" t="n">
-        <v>541.4418444859971</v>
+        <v>595.1550133292005</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.7673947666543</v>
+        <v>538.3542541623684</v>
       </c>
       <c r="AD4" t="n">
-        <v>395720.2065068008</v>
+        <v>434977.2134840606</v>
       </c>
       <c r="AE4" t="n">
-        <v>541441.8444859971</v>
+        <v>595155.0133292006</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.761184772868975e-06</v>
+        <v>4.890263407831399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.820833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>489767.3947666542</v>
+        <v>538354.2541623684</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1058.507008781706</v>
+        <v>1128.437009783914</v>
       </c>
       <c r="AB2" t="n">
-        <v>1448.295987448577</v>
+        <v>1543.977299913706</v>
       </c>
       <c r="AC2" t="n">
-        <v>1310.072651102669</v>
+        <v>1396.622273395692</v>
       </c>
       <c r="AD2" t="n">
-        <v>1058507.008781706</v>
+        <v>1128437.009783914</v>
       </c>
       <c r="AE2" t="n">
-        <v>1448295.987448577</v>
+        <v>1543977.299913706</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638816634129167e-06</v>
+        <v>2.857953109756687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1310072.651102669</v>
+        <v>1396622.273395692</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>468.7638526927934</v>
+        <v>508.6873681220754</v>
       </c>
       <c r="AB3" t="n">
-        <v>641.3833836559122</v>
+        <v>696.0084987674502</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.1706537070239</v>
+        <v>629.5824244991472</v>
       </c>
       <c r="AD3" t="n">
-        <v>468763.8526927934</v>
+        <v>508687.3681220755</v>
       </c>
       <c r="AE3" t="n">
-        <v>641383.3836559122</v>
+        <v>696008.4987674502</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583684233354703e-06</v>
+        <v>4.505719697719034e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.190277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>580170.6537070239</v>
+        <v>629582.4244991472</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.1453938889546</v>
+        <v>446.1541606642572</v>
       </c>
       <c r="AB4" t="n">
-        <v>555.7060457890673</v>
+        <v>610.4478055532545</v>
       </c>
       <c r="AC4" t="n">
-        <v>502.6702407172917</v>
+        <v>552.1875237601274</v>
       </c>
       <c r="AD4" t="n">
-        <v>406145.3938889547</v>
+        <v>446154.1606642572</v>
       </c>
       <c r="AE4" t="n">
-        <v>555706.0457890673</v>
+        <v>610447.8055532546</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.752791462496971e-06</v>
+        <v>4.80062793903445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.686111111111113</v>
       </c>
       <c r="AH4" t="n">
-        <v>502670.2407172917</v>
+        <v>552187.5237601274</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1758.938484999789</v>
+        <v>1841.552636244563</v>
       </c>
       <c r="AB2" t="n">
-        <v>2406.657234066015</v>
+        <v>2519.693560478239</v>
       </c>
       <c r="AC2" t="n">
-        <v>2176.969245411396</v>
+        <v>2279.217543478318</v>
       </c>
       <c r="AD2" t="n">
-        <v>1758938.484999789</v>
+        <v>1841552.636244563</v>
       </c>
       <c r="AE2" t="n">
-        <v>2406657.234066015</v>
+        <v>2519693.560478239</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.2469893665838e-06</v>
+        <v>2.119799277252886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.37777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2176969.245411396</v>
+        <v>2279217.543478318</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>627.5687788373309</v>
+        <v>668.9185696412792</v>
       </c>
       <c r="AB3" t="n">
-        <v>858.6672895857523</v>
+        <v>915.2438975877375</v>
       </c>
       <c r="AC3" t="n">
-        <v>776.7172886147974</v>
+        <v>827.8943045548413</v>
       </c>
       <c r="AD3" t="n">
-        <v>627568.7788373309</v>
+        <v>668918.5696412792</v>
       </c>
       <c r="AE3" t="n">
-        <v>858667.2895857523</v>
+        <v>915243.8975877375</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.259727075034582e-06</v>
+        <v>3.841386261031263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0375</v>
       </c>
       <c r="AH3" t="n">
-        <v>776717.2886147974</v>
+        <v>827894.3045548412</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>456.9902616113657</v>
+        <v>498.3399629067631</v>
       </c>
       <c r="AB4" t="n">
-        <v>625.2742369241228</v>
+        <v>681.8507224565597</v>
       </c>
       <c r="AC4" t="n">
-        <v>565.598941329987</v>
+        <v>616.7758464888043</v>
       </c>
       <c r="AD4" t="n">
-        <v>456990.2616113657</v>
+        <v>498339.9629067631</v>
       </c>
       <c r="AE4" t="n">
-        <v>625274.2369241228</v>
+        <v>681850.7224565597</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.641323467285168e-06</v>
+        <v>4.490074837030229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.731944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>565598.941329987</v>
+        <v>616775.8464888043</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.5482912740163</v>
+        <v>470.8979925694137</v>
       </c>
       <c r="AB5" t="n">
-        <v>587.7269224542736</v>
+        <v>644.3034079867106</v>
       </c>
       <c r="AC5" t="n">
-        <v>531.6350898551533</v>
+        <v>582.8119950139707</v>
       </c>
       <c r="AD5" t="n">
-        <v>429548.2912740163</v>
+        <v>470897.9925694137</v>
       </c>
       <c r="AE5" t="n">
-        <v>587726.9224542736</v>
+        <v>644303.4079867105</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.721466062189433e-06</v>
+        <v>4.626311936806505e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.504166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>531635.0898551533</v>
+        <v>582811.9950139706</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.0271903811088</v>
+        <v>689.9826708408581</v>
       </c>
       <c r="AB2" t="n">
-        <v>878.4499261200488</v>
+        <v>944.064730131561</v>
       </c>
       <c r="AC2" t="n">
-        <v>794.6118980833654</v>
+        <v>853.9645172909745</v>
       </c>
       <c r="AD2" t="n">
-        <v>642027.1903811088</v>
+        <v>689982.6708408581</v>
       </c>
       <c r="AE2" t="n">
-        <v>878449.9261200487</v>
+        <v>944064.7301315609</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126824622207706e-06</v>
+        <v>3.835168085496732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.38888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>794611.8980833654</v>
+        <v>853964.5172909745</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.4708507444941</v>
+        <v>433.8181848430895</v>
       </c>
       <c r="AB3" t="n">
-        <v>541.1006649312092</v>
+        <v>593.5691792098892</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.4587769097269</v>
+        <v>536.9197698256718</v>
       </c>
       <c r="AD3" t="n">
-        <v>395470.8507444941</v>
+        <v>433818.1848430895</v>
       </c>
       <c r="AE3" t="n">
-        <v>541100.6649312092</v>
+        <v>593569.1792098891</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.753147349235288e-06</v>
+        <v>4.964576175301551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.024999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>489458.7769097269</v>
+        <v>536919.7698256718</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>414.2007587972324</v>
+        <v>460.3740204400418</v>
       </c>
       <c r="AB2" t="n">
-        <v>566.7277514341911</v>
+        <v>629.9040450344213</v>
       </c>
       <c r="AC2" t="n">
-        <v>512.640050244706</v>
+        <v>569.7868870522151</v>
       </c>
       <c r="AD2" t="n">
-        <v>414200.7587972324</v>
+        <v>460374.0204400418</v>
       </c>
       <c r="AE2" t="n">
-        <v>566727.7514341911</v>
+        <v>629904.0450344213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592116845047603e-06</v>
+        <v>4.836061481533546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.879166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>512640.050244706</v>
+        <v>569786.8870522151</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.7384689141626</v>
+        <v>422.8306917666392</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.7843907485662</v>
+        <v>578.5356064487062</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.4133892455671</v>
+        <v>523.3209801490643</v>
       </c>
       <c r="AD3" t="n">
-        <v>385738.4689141627</v>
+        <v>422830.6917666392</v>
       </c>
       <c r="AE3" t="n">
-        <v>527784.3907485662</v>
+        <v>578535.6064487061</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.706294604045033e-06</v>
+        <v>5.049080683731258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.504166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>477413.3892455671</v>
+        <v>523320.9801490643</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.7955257118622</v>
+        <v>428.6629058063841</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.4401671945518</v>
+        <v>586.5154989970091</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.1476319395151</v>
+        <v>530.5392829524068</v>
       </c>
       <c r="AD2" t="n">
-        <v>392795.5257118623</v>
+        <v>428662.9058063841</v>
       </c>
       <c r="AE2" t="n">
-        <v>537440.1671945518</v>
+        <v>586515.4989970091</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.611484245330919e-06</v>
+        <v>5.021981047028771e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.116666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>486147.6319395151</v>
+        <v>530539.2829524068</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.4238974102067</v>
+        <v>496.8362979108226</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.8168712690079</v>
+        <v>679.7933416720958</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.5213663619562</v>
+        <v>614.9148192388576</v>
       </c>
       <c r="AD2" t="n">
-        <v>446423.8974102067</v>
+        <v>496836.2979108226</v>
       </c>
       <c r="AE2" t="n">
-        <v>610816.8712690079</v>
+        <v>679793.3416720958</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196668814641961e-06</v>
+        <v>4.530847606339207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>552521.3663619562</v>
+        <v>614914.8192388576</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>940.772736296388</v>
+        <v>1000.148840771492</v>
       </c>
       <c r="AB2" t="n">
-        <v>1287.206761764641</v>
+        <v>1368.447767396333</v>
       </c>
       <c r="AC2" t="n">
-        <v>1164.35755502786</v>
+        <v>1237.845033104531</v>
       </c>
       <c r="AD2" t="n">
-        <v>940772.736296388</v>
+        <v>1000148.840771492</v>
       </c>
       <c r="AE2" t="n">
-        <v>1287206.761764641</v>
+        <v>1368447.767396333</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750883713202398e-06</v>
+        <v>3.076233615628569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.20555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1164357.55502786</v>
+        <v>1237845.033104531</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.1321835265388</v>
+        <v>475.6878360612678</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.7352942950013</v>
+        <v>650.8570831652463</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.7837153307314</v>
+        <v>588.740196631608</v>
       </c>
       <c r="AD3" t="n">
-        <v>436132.1835265388</v>
+        <v>475687.8360612678</v>
       </c>
       <c r="AE3" t="n">
-        <v>596735.2942950013</v>
+        <v>650857.0831652463</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.668562812028226e-06</v>
+        <v>4.688559591866269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.008333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>539783.7153307314</v>
+        <v>588740.1966316079</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.8832849705365</v>
+        <v>440.524188851286</v>
       </c>
       <c r="AB4" t="n">
-        <v>548.5061962190264</v>
+        <v>602.7446297419206</v>
       </c>
       <c r="AC4" t="n">
-        <v>496.1575346851631</v>
+        <v>545.2195282367519</v>
       </c>
       <c r="AD4" t="n">
-        <v>400883.2849705365</v>
+        <v>440524.188851286</v>
       </c>
       <c r="AE4" t="n">
-        <v>548506.1962190263</v>
+        <v>602744.6297419205</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757037909584372e-06</v>
+        <v>4.844006848126611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.751388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>496157.5346851631</v>
+        <v>545219.5282367519</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1543.834288883716</v>
+        <v>1625.726950862448</v>
       </c>
       <c r="AB2" t="n">
-        <v>2112.342183212622</v>
+        <v>2224.391336181188</v>
       </c>
       <c r="AC2" t="n">
-        <v>1910.743209937683</v>
+        <v>2012.098549008903</v>
       </c>
       <c r="AD2" t="n">
-        <v>1543834.288883716</v>
+        <v>1625726.950862448</v>
       </c>
       <c r="AE2" t="n">
-        <v>2112342.183212622</v>
+        <v>2224391.336181188</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.339356990824039e-06</v>
+        <v>2.29015119315759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1910743.209937683</v>
+        <v>2012098.549008903</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>579.1373006627825</v>
+        <v>630.3414936702886</v>
       </c>
       <c r="AB3" t="n">
-        <v>792.4012045013153</v>
+        <v>862.4610403437505</v>
       </c>
       <c r="AC3" t="n">
-        <v>716.7755456857843</v>
+        <v>780.1489691250149</v>
       </c>
       <c r="AD3" t="n">
-        <v>579137.3006627825</v>
+        <v>630341.4936702886</v>
       </c>
       <c r="AE3" t="n">
-        <v>792401.2045013153</v>
+        <v>862461.0403437505</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.333680912053531e-06</v>
+        <v>3.990334288620315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.824999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>716775.5456857843</v>
+        <v>780148.9691250148</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>432.8432325320334</v>
+        <v>473.8748596216956</v>
       </c>
       <c r="AB4" t="n">
-        <v>592.2352064460417</v>
+        <v>648.3764888177482</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.7131095501634</v>
+        <v>586.496346727099</v>
       </c>
       <c r="AD4" t="n">
-        <v>432843.2325320333</v>
+        <v>473874.8596216956</v>
       </c>
       <c r="AE4" t="n">
-        <v>592235.2064460417</v>
+        <v>648376.4888177481</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.69976885740331e-06</v>
+        <v>4.616303877450835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.627777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>535713.1095501634</v>
+        <v>586496.3467270989</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.3299768097745</v>
+        <v>465.3616038994368</v>
       </c>
       <c r="AB5" t="n">
-        <v>580.5869943885119</v>
+        <v>636.7282767602183</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.176586503036</v>
+        <v>575.9598236799714</v>
       </c>
       <c r="AD5" t="n">
-        <v>424329.9768097745</v>
+        <v>465361.6038994368</v>
       </c>
       <c r="AE5" t="n">
-        <v>580586.9943885119</v>
+        <v>636728.2767602182</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.730609802171537e-06</v>
+        <v>4.669038456015739e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.541666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>525176.586503036</v>
+        <v>575959.8236799714</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.3678008581788</v>
+        <v>579.248048779389</v>
       </c>
       <c r="AB2" t="n">
-        <v>714.7266703750836</v>
+        <v>792.5527349603185</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.514160079667</v>
+        <v>716.9126142904548</v>
       </c>
       <c r="AD2" t="n">
-        <v>522367.8008581789</v>
+        <v>579248.048779389</v>
       </c>
       <c r="AE2" t="n">
-        <v>714726.6703750836</v>
+        <v>792552.7349603185</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.839691170208918e-06</v>
+        <v>3.943305521962665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>646514.160079667</v>
+        <v>716912.6142904548</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.9627558365315</v>
+        <v>529.6833835113363</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.8109493485715</v>
+        <v>724.7361733018623</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.7440797967354</v>
+        <v>655.5683700955396</v>
       </c>
       <c r="AD2" t="n">
-        <v>482962.7558365315</v>
+        <v>529683.3835113363</v>
       </c>
       <c r="AE2" t="n">
-        <v>660810.9493485715</v>
+        <v>724736.1733018623</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.437411988806407e-06</v>
+        <v>4.490767149629537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>597744.0797967354</v>
+        <v>655568.3700955396</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.3173868921042</v>
+        <v>425.7451114464012</v>
       </c>
       <c r="AB3" t="n">
-        <v>531.3129800998173</v>
+        <v>582.5232440296782</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.605214981541</v>
+        <v>526.9280431959929</v>
       </c>
       <c r="AD3" t="n">
-        <v>388317.3868921042</v>
+        <v>425745.1114464012</v>
       </c>
       <c r="AE3" t="n">
-        <v>531312.9800998173</v>
+        <v>582523.2440296782</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.73069833021712e-06</v>
+        <v>5.031127447146262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.305555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>480605.214981541</v>
+        <v>526928.0431959929</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>726.2297220222832</v>
+        <v>784.4269666131258</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.6595446650256</v>
+        <v>1073.287582195444</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.8260723321248</v>
+        <v>970.8545217192926</v>
       </c>
       <c r="AD2" t="n">
-        <v>726229.7220222832</v>
+        <v>784426.9666131259</v>
       </c>
       <c r="AE2" t="n">
-        <v>993659.5446650255</v>
+        <v>1073287.582195444</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.991853774727436e-06</v>
+        <v>3.558301406486929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>898826.0723321248</v>
+        <v>970854.5217192926</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.7855773832564</v>
+        <v>439.183716878625</v>
       </c>
       <c r="AB3" t="n">
-        <v>534.6900672186912</v>
+        <v>600.910536851476</v>
       </c>
       <c r="AC3" t="n">
-        <v>483.6599976455611</v>
+        <v>543.5604785976058</v>
       </c>
       <c r="AD3" t="n">
-        <v>390785.5773832564</v>
+        <v>439183.716878625</v>
       </c>
       <c r="AE3" t="n">
-        <v>534690.0672186912</v>
+        <v>600910.5368514759</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754226412950922e-06</v>
+        <v>4.920224488028891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.927777777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>483659.9976455611</v>
+        <v>543560.4785976057</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>391.9875284166293</v>
+        <v>430.8425853802389</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.3346296488894</v>
+        <v>589.4978327506334</v>
       </c>
       <c r="AC4" t="n">
-        <v>485.147605345579</v>
+        <v>533.2369869583168</v>
       </c>
       <c r="AD4" t="n">
-        <v>391987.5284166294</v>
+        <v>430842.5853802389</v>
       </c>
       <c r="AE4" t="n">
-        <v>536334.6296488894</v>
+        <v>589497.8327506334</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.758471424547546e-06</v>
+        <v>4.927807891452614e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>485147.605345579</v>
+        <v>533236.9869583169</v>
       </c>
     </row>
   </sheetData>
